--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
@@ -42,328 +42,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Alex Phuong</author>
-  </authors>
-  <commentList>
-    <comment ref="H12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-số Settlement No</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Request Date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Requester Name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Requester Department</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Description + Payee Name EN</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Bank Name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Banks Account</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Beneficiary Name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Description</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Settlement Total Amount</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G40" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Total Amount</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B42" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alex Phuong:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Total Amout số tiền bằng chứ</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
@@ -530,7 +208,7 @@
     <numFmt numFmtId="164" formatCode="_([$VND]\ * #,##0.00_);_([$VND]\ * \(#,##0.00\);_([$VND]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_([$USD]\ * #,##0.00_);_([$USD]\ * \(#,##0.00\);_([$USD]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -569,19 +247,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1314,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1706,6 +1371,5 @@
   <pageMargins left="0.5" right="0.4" top="0.28999999999999998" bottom="0.28999999999999998" header="0.3" footer="0.3"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lynne.loc\Desktop\eFMSSource\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\SettlePayment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eFMS\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\SettlePayment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ĐƠN VỊ:…………………………………………………………………………………….</t>
   </si>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_([$VND]\ * #,##0.00_);_([$VND]\ * \(#,##0.00\);_([$VND]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_([$USD]\ * #,##0.00_);_([$USD]\ * \(#,##0.00\);_([$USD]\ * &quot;-&quot;??_);_(@_)"/>
@@ -982,8 +982,8 @@
   </sheetPr>
   <dimension ref="A10:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1348,11 +1348,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="56" spans="1:1" s="3" customFormat="1">
       <c r="A56" s="35"/>
     </row>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eFMS\eFMS-WebApp\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\SettlePayment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lynne.loc\Desktop\eFMSSource\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\SettlePayment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_([$VND]\ * #,##0.00_);_([$VND]\ * \(#,##0.00\);_([$VND]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_([$USD]\ * #,##0.00_);_([$USD]\ * \(#,##0.00\);_([$USD]\ * &quot;-&quot;??_);_(@_)"/>
@@ -982,8 +982,8 @@
   </sheetPr>
   <dimension ref="A10:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
@@ -17,6 +17,10 @@
   <definedNames>
     <definedName name="_Fill" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
+    <definedName name="_tick1">Payment!#REF!</definedName>
+    <definedName name="_tick2">Payment!#REF!</definedName>
+    <definedName name="_tick3">Payment!#REF!</definedName>
+    <definedName name="_tick4">Payment!#REF!</definedName>
     <definedName name="Associate" localSheetId="0">#REF!</definedName>
     <definedName name="Associate">#REF!</definedName>
     <definedName name="d" localSheetId="0" hidden="1">#REF!</definedName>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>ĐƠN VỊ:…………………………………………………………………………………….</t>
   </si>
@@ -194,7 +198,25 @@
     <t>{PaymentMethod}</t>
   </si>
   <si>
-    <t>Thanh toán cước vận chuyển</t>
+    <t>{Manager}</t>
+  </si>
+  <si>
+    <t>{Accountant}</t>
+  </si>
+  <si>
+    <t>{tick1}</t>
+  </si>
+  <si>
+    <t>{tick2}</t>
+  </si>
+  <si>
+    <t>{tick3}</t>
+  </si>
+  <si>
+    <t>{tick4}</t>
+  </si>
+  <si>
+    <t>{SettlementNote}</t>
   </si>
 </sst>
 </file>
@@ -205,7 +227,7 @@
     <numFmt numFmtId="164" formatCode="_([$VND]\ * #,##0.00_);_([$VND]\ * \(#,##0.00\);_([$VND]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_([$USD]\ * #,##0.00_);_([$USD]\ * \(#,##0.00\);_([$USD]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -245,6 +267,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color indexed="8"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -536,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -599,13 +628,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,6 +665,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,20 +1038,20 @@
   <dimension ref="A10:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="2" customWidth="1"/>
     <col min="7" max="7" width="23" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="20.1796875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
@@ -1005,7 +1060,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" thickBot="1"/>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="21.75" thickTop="1" thickBot="1">
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="21" thickTop="1" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1038,10 +1093,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -1102,25 +1157,25 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="24.75" customHeight="1">
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
     </row>
     <row r="23" spans="1:8" ht="24.75" customHeight="1">
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="E24" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5" thickBot="1"/>
+    <row r="25" spans="1:8" ht="13" thickBot="1"/>
     <row r="26" spans="1:8" s="17" customFormat="1" ht="40.5" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>11</v>
@@ -1137,11 +1192,11 @@
       <c r="E26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41" t="s">
+      <c r="G26" s="45"/>
+      <c r="H26" s="46" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1157,7 +1212,7 @@
       <c r="G27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="42"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
       <c r="A28" s="21"/>
@@ -1174,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -1219,7 +1274,7 @@
       <c r="G32" s="23"/>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="1:8" ht="21" customHeight="1">
+    <row r="33" spans="1:9" ht="21" customHeight="1">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -1229,7 +1284,7 @@
       <c r="G33" s="23"/>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="1:8" ht="21" customHeight="1">
+    <row r="34" spans="1:9" ht="21" customHeight="1">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -1239,7 +1294,7 @@
       <c r="G34" s="23"/>
       <c r="H34" s="24"/>
     </row>
-    <row r="35" spans="1:8" ht="21" customHeight="1">
+    <row r="35" spans="1:9" ht="21" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -1249,7 +1304,7 @@
       <c r="G35" s="23"/>
       <c r="H35" s="24"/>
     </row>
-    <row r="36" spans="1:8" ht="21" customHeight="1">
+    <row r="36" spans="1:9" ht="21" customHeight="1">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -1259,7 +1314,7 @@
       <c r="G36" s="23"/>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:8" ht="21" customHeight="1">
+    <row r="37" spans="1:9" ht="21" customHeight="1">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -1269,7 +1324,7 @@
       <c r="G37" s="23"/>
       <c r="H37" s="24"/>
     </row>
-    <row r="38" spans="1:8" ht="21" customHeight="1">
+    <row r="38" spans="1:9" ht="21" customHeight="1">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -1279,7 +1334,7 @@
       <c r="G38" s="23"/>
       <c r="H38" s="24"/>
     </row>
-    <row r="39" spans="1:8" ht="21" customHeight="1" thickBot="1">
+    <row r="39" spans="1:9" ht="21" customHeight="1" thickBot="1">
       <c r="A39" s="25"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -1295,7 +1350,7 @@
       </c>
       <c r="H39" s="29"/>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A40" s="30"/>
       <c r="B40" s="31" t="s">
         <v>20</v>
@@ -1306,20 +1361,21 @@
       <c r="F40" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="35" t="s">
         <v>45</v>
       </c>
       <c r="H40" s="33"/>
     </row>
-    <row r="41" spans="1:8" ht="7.5" customHeight="1"/>
-    <row r="42" spans="1:8">
+    <row r="41" spans="1:9" ht="7.5" customHeight="1"/>
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="3"/>
     </row>
-    <row r="44" spans="1:8" s="1" customFormat="1">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="13">
+      <c r="A44" s="51"/>
+      <c r="B44" s="51" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1333,26 +1389,64 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:9" s="37" customFormat="1" ht="17" customHeight="1">
+      <c r="B45" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="36"/>
+      <c r="D45" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" s="38"/>
+      <c r="F45" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="3" customFormat="1">
-      <c r="A56" s="35"/>
+    <row r="46" spans="1:9" ht="51.5" customHeight="1">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="48"/>
+      <c r="H46" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="40"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.5" customHeight="1">
+      <c r="A47" s="52"/>
+      <c r="B47" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" s="3" customFormat="1" ht="13">
+      <c r="A56" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E22:H23"/>
     <mergeCell ref="F26:G26"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>ĐƠN VỊ:…………………………………………………………………………………….</t>
   </si>
@@ -202,18 +202,6 @@
   </si>
   <si>
     <t>{Accountant}</t>
-  </si>
-  <si>
-    <t>{tick1}</t>
-  </si>
-  <si>
-    <t>{tick2}</t>
-  </si>
-  <si>
-    <t>{tick3}</t>
-  </si>
-  <si>
-    <t>{tick4}</t>
   </si>
   <si>
     <t>{SettlementNote}</t>
@@ -648,36 +636,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,10 +1081,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -1157,18 +1145,18 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="24.75" customHeight="1">
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:8" ht="24.75" customHeight="1">
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="E24" s="14" t="s">
@@ -1192,11 +1180,11 @@
       <c r="E26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46" t="s">
+      <c r="G26" s="50"/>
+      <c r="H26" s="51" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1212,7 +1200,7 @@
       <c r="G27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
       <c r="A28" s="21"/>
@@ -1229,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -1374,8 +1362,8 @@
       <c r="B42" s="3"/>
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" ht="13">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51" t="s">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1407,33 +1395,25 @@
     </row>
     <row r="46" spans="1:9" ht="51.5" customHeight="1">
       <c r="A46" s="40"/>
-      <c r="B46" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="48"/>
-      <c r="H46" s="41" t="s">
-        <v>53</v>
-      </c>
+      <c r="B46" s="40"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="41"/>
       <c r="I46" s="40"/>
     </row>
     <row r="47" spans="1:9" ht="12.5" customHeight="1">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
       <c r="H47" s="39" t="s">
         <v>49</v>
       </c>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>ĐƠN VỊ:…………………………………………………………………………………….</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>{SettlementNote}</t>
+  </si>
+  <si>
+    <t>{CompanyName}</t>
+  </si>
+  <si>
+    <t>{CompanyAddress}</t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,7 @@
     <numFmt numFmtId="164" formatCode="_([$VND]\ * #,##0.00_);_([$VND]\ * \(#,##0.00\);_([$VND]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_([$USD]\ * #,##0.00_);_([$USD]\ * \(#,##0.00\);_([$USD]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -262,6 +268,19 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial Black"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Microsoft Sans Serif"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -553,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -640,6 +659,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -666,6 +694,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,79 +713,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Logo-letter-1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8810625" cy="1209675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1023,32 +981,51 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A10:I56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="23" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="2"/>
+    <col min="8" max="8" width="22.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1">
+      <c r="F1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="1:10" ht="60" customHeight="1">
+      <c r="F2" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" thickBot="1"/>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="21" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" thickBot="1"/>
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="21.75" thickTop="1" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1065,7 +1042,7 @@
       </c>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="7.5" customHeight="1" thickTop="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="7.5" customHeight="1" thickTop="1">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1076,21 +1053,21 @@
       <c r="H13" s="10"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="24.75" customHeight="1">
+    <row r="15" spans="1:10" ht="24.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +1075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24.75" customHeight="1">
+    <row r="16" spans="1:10" ht="24.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1145,25 +1122,25 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="24.75" customHeight="1">
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" ht="24.75" customHeight="1">
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="E24" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13" thickBot="1"/>
+    <row r="25" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="26" spans="1:8" s="17" customFormat="1" ht="40.5" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>11</v>
@@ -1180,11 +1157,11 @@
       <c r="E26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" s="54" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1200,7 +1177,7 @@
       <c r="G27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="52"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
       <c r="A28" s="21"/>
@@ -1361,7 +1338,7 @@
       </c>
       <c r="B42" s="3"/>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="13">
+    <row r="44" spans="1:9" s="1" customFormat="1">
       <c r="A44" s="42"/>
       <c r="B44" s="42" t="s">
         <v>21</v>
@@ -1377,7 +1354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="37" customFormat="1" ht="17" customHeight="1">
+    <row r="45" spans="1:9" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B45" s="37" t="s">
         <v>25</v>
       </c>
@@ -1393,36 +1370,38 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="51.5" customHeight="1">
+    <row r="46" spans="1:9" ht="51.6" customHeight="1">
       <c r="A46" s="40"/>
       <c r="B46" s="40"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
       <c r="H46" s="41"/>
       <c r="I46" s="40"/>
     </row>
-    <row r="47" spans="1:9" ht="12.5" customHeight="1">
+    <row r="47" spans="1:9" ht="12.6" customHeight="1">
       <c r="A47" s="43"/>
       <c r="B47" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
       <c r="H47" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="3" customFormat="1" ht="13">
+    <row r="56" spans="1:1" s="3" customFormat="1">
       <c r="A56" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="D47:E47"/>
@@ -1434,6 +1413,5 @@
   </mergeCells>
   <pageMargins left="0.5" right="0.4" top="0.28999999999999998" bottom="0.28999999999999998" header="0.3" footer="0.3"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/SettlePayment/Settlement-General-Preview.xlsx
@@ -662,6 +662,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -694,9 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,40 +983,38 @@
   </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="23.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1">
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="60" customHeight="1">
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="56"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="44"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
@@ -1025,7 +1023,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" thickBot="1"/>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="21.75" thickTop="1" thickBot="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="21" thickTop="1" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1058,10 +1056,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -1122,25 +1120,25 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="24.75" customHeight="1">
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:8" ht="24.75" customHeight="1">
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="E24" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5" thickBot="1"/>
+    <row r="25" spans="1:8" ht="13" thickBot="1"/>
     <row r="26" spans="1:8" s="17" customFormat="1" ht="40.5" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>11</v>
@@ -1157,11 +1155,11 @@
       <c r="E26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54" t="s">
+      <c r="G26" s="54"/>
+      <c r="H26" s="55" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1177,7 +1175,7 @@
       <c r="G27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="55"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
       <c r="A28" s="21"/>
@@ -1338,7 +1336,7 @@
       </c>
       <c r="B42" s="3"/>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="13">
       <c r="A44" s="42"/>
       <c r="B44" s="42" t="s">
         <v>21</v>
@@ -1354,7 +1352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:9" s="37" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="B45" s="37" t="s">
         <v>25</v>
       </c>
@@ -1370,32 +1368,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="51.6" customHeight="1">
+    <row r="46" spans="1:9" ht="51.65" customHeight="1">
       <c r="A46" s="40"/>
       <c r="B46" s="40"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="41"/>
       <c r="I46" s="40"/>
     </row>
-    <row r="47" spans="1:9" ht="12.6" customHeight="1">
+    <row r="47" spans="1:9" ht="12.65" customHeight="1">
       <c r="A47" s="43"/>
       <c r="B47" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
       <c r="H47" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="3" customFormat="1">
+    <row r="56" spans="1:1" s="3" customFormat="1" ht="13">
       <c r="A56" s="34"/>
     </row>
   </sheetData>
